--- a/salidas/importancia_variables.xlsx
+++ b/salidas/importancia_variables.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4196845090182775</v>
+        <v>0.2740382926910351</v>
       </c>
     </row>
     <row r="3">
@@ -468,46 +468,59 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2481317727913707</v>
+        <v>0.2092224095189418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>yearswithcurrmanager</t>
+          <t>distancefromhome</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1684936681721692</v>
+        <v>0.1843207811210458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>yearssincelastpromotion</t>
+          <t>yearswithcurrmanager</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0986439800066181</v>
+        <v>0.1604434038339488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>yearssincelastpromotion</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.09984145540857574</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>jobsatisfaction</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.06504607001156455</v>
+      <c r="C7" t="n">
+        <v>0.07213365742645263</v>
       </c>
     </row>
   </sheetData>
